--- a/Database/Atribute_Metadata.xlsx
+++ b/Database/Atribute_Metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dias3\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51FF6154-8EEB-472F-A8CD-A5796B9FB771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07947E8C-525C-42FB-8FF1-B8F137839026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{8BDBC35B-655C-3444-A5D3-D16A6B1D0EBB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8BDBC35B-655C-3444-A5D3-D16A6B1D0EBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Attribute Metadata" sheetId="1" r:id="rId1"/>
@@ -648,42 +648,9 @@
     <t>Average Convective Condensation Level</t>
   </si>
   <si>
-    <t xml:space="preserve">Calculated temporal metrics from the proportion of the total vegatated area in the polygon, obtained from the 'years_since_last_fire' dataset from GIS Data </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculated temporal metrics from the mean value in the polygon, obtained from the 'elevation' dataset from GIS Data </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculated temporal metrics from the circular mean value in the polygon, obtained from the 'aspect' dataset from GIS Data </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculated temporal metrics from the mode value in the polygon, obtained from the 'landform' dataset from GIS Data </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculated temporal metrics from the mode value in the polygon, obtained from the 'fuel_models' dataset from GIS Data </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculated temporal metrics from the weighted mean between the fuel model's proportions in the polygon and tabulated mean fuel load values, obtained from the 'fuel_models' dataset from GIS Data </t>
-  </si>
-  <si>
-    <t>Calculated temporal metrics from the COS (Carta de Ocupação do Solo).</t>
-  </si>
-  <si>
     <t>Average Lifted Index</t>
   </si>
   <si>
-    <t>Calculated temporal metrics from the ERA5 dataset</t>
-  </si>
-  <si>
-    <t>Calculated temporal metrics from the ERA5 Land dataset</t>
-  </si>
-  <si>
-    <t>Calculated temporal metrics from u and v components of the wind, from the ERA5 Land dataset</t>
-  </si>
-  <si>
-    <t>Calculated temporal metrics from u and v components of the wind, from the ERA5 dataset</t>
-  </si>
-  <si>
     <t>Average height where a rising air parcel becomes warmer than the surrounding air and begins to rise freely.</t>
   </si>
   <si>
@@ -693,9 +660,6 @@
     <t>Pa</t>
   </si>
   <si>
-    <t>Calculated temporal metrics from temperature and dew point at 2m height, from the ERA5 Land dataset</t>
-  </si>
-  <si>
     <t>Average wind velocity registered at 10 meters above ground.</t>
   </si>
   <si>
@@ -711,15 +675,9 @@
     <t>Average wind direction registered at 100 meters above ground.</t>
   </si>
   <si>
-    <t>Average index representing the potential for large fire growth under hot, dry, and windy conditions, Calculated temporal metrics from temperature, humidity, and wind.</t>
-  </si>
-  <si>
     <t>Average difference between the amount of moisture in the air and the maximum moisture the air can hold at a given temperature.</t>
   </si>
   <si>
-    <t>Calculated temporal metrics from air temperature, from the ERA5 Land dataset, and relative humidity using Anderson, W. et al. (2015) formula.</t>
-  </si>
-  <si>
     <t>dimensionless</t>
   </si>
   <si>
@@ -1008,18 +966,9 @@
     <t>HDW_av</t>
   </si>
   <si>
-    <t>Calculated temporal metrics from the pressure, temperature and dewpoint atmosferic profiles (ground + pressure levels, 950hPa 850hPa 700hPa 500hPa and 300hPa)</t>
-  </si>
-  <si>
-    <t>Calculated temporal metrics from the pressure, temperature and dewpoint atmosferic profiles (ground + pressure levels, 950hPa 850hPa 700hPa 500hPa and 300hPa) if CAPE is positive</t>
-  </si>
-  <si>
     <t>We estimated the mixing layer height using specific threshold-based rules: 1500m for high CAPE (&gt;100 J/kg) with low winds (&lt;10 m/s), 800m for low CAPE (&lt;50 J/kg) with strong winds (&gt;15 m/s), 500m for very stable conditions (CAPE&lt;10 J/kg), and 700-1200m for neutral conditions based on dewpoint depression (700m for moist air, 1000m for moderate, 1200m for dry air with depression &gt;15°C).</t>
   </si>
   <si>
-    <t>Calculated temporal metrics from the multiplication of vapor pressure deficit at the 2m and 10-meter wind speed as the maximum VPD and wind speed in the lowest 50 millibars in the atmosphere.</t>
-  </si>
-  <si>
     <t>hPA</t>
   </si>
   <si>
@@ -1077,12 +1026,6 @@
     <t>Average wind direction change between 10m and 100 m</t>
   </si>
   <si>
-    <t>Calculated temporal metrics from the difference in wind speed between 10 meter height, from the ERA5 dataset, and 100 meter height, from the ERA5 dataset on Single Levels, divided by the vertical distance between those levels.</t>
-  </si>
-  <si>
-    <t>Calculated temporal metrics from the change in wind direction between 10 meter height, from the ERA5 Land dataset, and 100 meter height, from the ERA5 dataset on Single Levels, normalized to the shortest angular difference and divided by the vertical distance between those levels.</t>
-  </si>
-  <si>
     <t>Calculated temporal mode from temperature and dew point at specific atmospheric levels, from the ERA5 dataset on Pressure Levels</t>
   </si>
   <si>
@@ -1278,12 +1221,6 @@
     <t>Average height at which an air parcel becomes saturated.</t>
   </si>
   <si>
-    <t>Calculated temporal metric from a weighted average of soil water content in the 0-3cm, 3-27cm, 27-100cm and 100-297cm soil layers obtained from the ERA5 dataset</t>
-  </si>
-  <si>
-    <t>Calculated temporal metric from a weighted average of soil water content in the 0-3cm, 3-27cm and 27-100cm soil layers obtained from the ERA5 dataset</t>
-  </si>
-  <si>
     <t>m3/m3</t>
   </si>
   <si>
@@ -1302,45 +1239,24 @@
     <t>Gradiente de intensidade do vento entre 10 m e 950hPa médio</t>
   </si>
   <si>
-    <t>Calculated temporal metrics from the difference in wind speed between 10 meter height, from the ERA5 dataset, and the 950hPa level, from the ERA5 dataset on Pressure Levels, divided by the vertical distance between those levels.</t>
-  </si>
-  <si>
     <t>Average Wind Shear direction between 10 m and 950hPa pressure level</t>
   </si>
   <si>
     <t>Gradiente de direção do vento entre 10 m e 950hPa médio</t>
   </si>
   <si>
-    <t>Calculated temporal metrics from the change in wind direction between 10 meter height, from the ERA5 Land dataset, and the 950hPa level, from the ERA5 dataset on Pressure Levels, normalized to the shortest angular difference and divided by the vertical distance between those levels.</t>
-  </si>
-  <si>
     <t>Average Wind Shear velocity between 10 m and 700hPa pressure level</t>
   </si>
   <si>
-    <t>Calculated temporal metrics from the difference in wind speed between 10 meter height, from the ERA5 dataset, and the 700hPa level, from the ERA5 dataset on Pressure Levels, divided by the vertical distance between those levels.</t>
-  </si>
-  <si>
     <t>Average Wind Shear direction between 10 m and 700hPa pressure level</t>
   </si>
   <si>
-    <t>Calculated temporal metrics from the change in wind direction between 10 meter height, from the ERA5 Land dataset, and the 700hPa level, from the ERA5 dataset on Pressure Levels, normalized to the shortest angular difference and divided by the vertical distance between those levels.</t>
-  </si>
-  <si>
     <t>Average Wind Shear velocity between 10 m and 500hPa pressure level</t>
   </si>
   <si>
-    <t>Calculated temporal metrics from the difference in wind speed between 10 meter height, from the ERA5 dataset, and the 500hPa level, from the ERA5 dataset on Pressure Levels, divided by the vertical distance between those levels.</t>
-  </si>
-  <si>
     <t>Average Wind Shear direction between 10 m and 500hPa pressure level</t>
   </si>
   <si>
-    <t>Calculated temporal metrics from the change in wind direction between 10 meter height, from the ERA5 Land dataset, and the 500hPa level, from the ERA5 dataset on Pressure Levels, normalized to the shortest angular difference and divided by the vertical distance between those levels.</t>
-  </si>
-  <si>
-    <t>Calculated temporal metrics from the multiplication of the estimated mixing layer height (determined from CAPE, wind speed, and dewpoint depression conditions) with the wind speed at 950hPa (as an average wind speed in the mixing layer).</t>
-  </si>
-  <si>
     <t>Average difference between ambient temperature and a lifted parcel’s temperature at 500hPa.</t>
   </si>
   <si>
@@ -1374,27 +1290,12 @@
     <t>Average rate of temperature change between the 500hPa and the 300hPa pressure levels</t>
   </si>
   <si>
-    <t>Calculated temporal metrics from the rate of change in temperature between 2 meter height, from the ERA5 Land dataset, and the 950hPa pressure level, from the ERA5 dataset on Pressure Levels.</t>
-  </si>
-  <si>
-    <t>Calculated temporal metrics from the rate of change in temperature between the 950hPa and the 850hPa pressure level, from the ERA5 dataset on Pressure Levels.</t>
-  </si>
-  <si>
-    <t>Calculated temporal metrics from the rate of change in temperature between the 850hPa and the 700hPa pressure level, from the ERA5 dataset on Pressure Levels.</t>
-  </si>
-  <si>
-    <t>Calculated temporal metrics from the rate of change in temperature between the 700hPa and the 500hPa pressure level, from the ERA5 dataset on Pressure Levels.</t>
-  </si>
-  <si>
     <t>Average Convective Mixing Layer Gap</t>
   </si>
   <si>
     <t>Average distance between the Boundary Layer Height and the Lifting Condensation Level</t>
   </si>
   <si>
-    <t>Calculated temporal metrics from the difference between the BLH_m, from the ERA5 dataset, and the LCL_m previously calculated</t>
-  </si>
-  <si>
     <t>Average Geopotential at the 950hPa pressure level</t>
   </si>
   <si>
@@ -1410,18 +1311,9 @@
     <t>Average Geopotential at the 300hPa pressure level</t>
   </si>
   <si>
-    <t>Calculated temporal metrics from the comparisson of the environmental temperature at 500hPa and the temperature of a surface-based parcel lifted dry-adiabatically to 500hPa</t>
-  </si>
-  <si>
-    <t>Calculated temporal metrics from the geopotential at 950hPa from the ERA5 dataset on Pressure Levels</t>
-  </si>
-  <si>
     <t>The temporal em spacial metric used was the mode and not the mean</t>
   </si>
   <si>
-    <t>Calculated from surface pressure, temperature at 2 m and dew point temperature at 2 m, from the ERA5 Land dataset</t>
-  </si>
-  <si>
     <t>Average Geopotential at 950 hPa</t>
   </si>
   <si>
@@ -1500,178 +1392,91 @@
     <t>Average Air Temperature at 950 hPa</t>
   </si>
   <si>
-    <t>Calculated temporal metrics from the geopotential at 850hPa from the ERA5 dataset on Pressure Levels</t>
-  </si>
-  <si>
-    <t>Calculated temporal metrics from the geopotential at 700hPa from the ERA5 dataset on Pressure Levels</t>
-  </si>
-  <si>
-    <t>Calculated temporal metrics from the geopotential at 500hPa from the ERA5 dataset on Pressure Levels</t>
-  </si>
-  <si>
-    <t>Calculated temporal metrics from the geopotential at 300hPa from the ERA5 dataset on Pressure Levels</t>
-  </si>
-  <si>
     <t>Average Relative Humidity at the 950hPa pressure level</t>
   </si>
   <si>
-    <t>Calculated temporal metrics from relative humidity at 950hPa from the ERA5 dataset on Pressure Levels</t>
-  </si>
-  <si>
     <t>Average Relative Humidity at the 850hPa pressure level</t>
   </si>
   <si>
-    <t>Calculated temporal metrics from relative humidity at 850hPa from the ERA5 dataset on Pressure Levels</t>
-  </si>
-  <si>
     <t>Average Relative Humidity at the 700hPa pressure level</t>
   </si>
   <si>
-    <t>Calculated temporal metrics from relative humidity at 700hPa from the ERA5 dataset on Pressure Levels</t>
-  </si>
-  <si>
     <t>Average Relative Humidity at the 500hPa pressure level</t>
   </si>
   <si>
-    <t>Calculated temporal metrics from relative humidity at 500hPa from the ERA5 dataset on Pressure Levels</t>
-  </si>
-  <si>
     <t>Average Relative Humidity at the 300hPa pressure level</t>
   </si>
   <si>
-    <t>Calculated temporal metrics from relative humidity at 300hPa from the ERA5 dataset on Pressure Levels</t>
-  </si>
-  <si>
     <t>Average Air Temperature at the 950hPa pressure level</t>
   </si>
   <si>
-    <t>Calculated temporal metrics from air temperature at 950hPa from the ERA5 dataset on Pressure Levels</t>
-  </si>
-  <si>
     <t>Average Air Temperature at 850 hPa</t>
   </si>
   <si>
     <t>Average Air Temperature at the 850hPa pressure level</t>
   </si>
   <si>
-    <t>Calculated temporal metrics from air temperature at 850hPa from the ERA5 dataset on Pressure Levels</t>
-  </si>
-  <si>
     <t>Average Air Temperature at 700 hPa</t>
   </si>
   <si>
     <t>Average Air Temperature at the 700hPa pressure level</t>
   </si>
   <si>
-    <t>Calculated temporal metrics from air temperature at 700hPa from the ERA5 dataset on Pressure Levels</t>
-  </si>
-  <si>
     <t>Average Air Temperature at 500 hPa</t>
   </si>
   <si>
     <t>Average Air Temperature at the 500hPa pressure level</t>
   </si>
   <si>
-    <t>Calculated temporal metrics from air temperature at 500hPa from the ERA5 dataset on Pressure Levels</t>
-  </si>
-  <si>
     <t>Average Air Temperature at 300 hPa</t>
   </si>
   <si>
     <t>Average Air Temperature at the 300hPa pressure level</t>
   </si>
   <si>
-    <t>Calculated temporal metrics from air temperature at 300hPa from the ERA5 dataset on Pressure Levels</t>
-  </si>
-  <si>
     <t>Average Horizontal Wind Speed at the 950hPa pressure level</t>
   </si>
   <si>
-    <t>Calculated temporal metrics from horizontal wind speed at 950hPa from the ERA5 dataset on Pressure Levels</t>
-  </si>
-  <si>
     <t>Average Horizontal Wind Speed at the 850hPa pressure level</t>
   </si>
   <si>
-    <t>Calculated temporal metrics from horizontal wind speed at 850hPa from the ERA5 dataset on Pressure Levels</t>
-  </si>
-  <si>
     <t>Average Horizontal Wind Speed at the 700hPa pressure level</t>
   </si>
   <si>
-    <t>Calculated temporal metrics from horizontal wind speed at 700hPa from the ERA5 dataset on Pressure Levels</t>
-  </si>
-  <si>
     <t>Average Horizontal Wind Speed at the 500hPa pressure level</t>
   </si>
   <si>
-    <t>Calculated temporal metrics from horizontal wind speed at 500hPa from the ERA5 dataset on Pressure Levels</t>
-  </si>
-  <si>
     <t>Average Horizontal Wind Speed at the 300hPa pressure level</t>
   </si>
   <si>
-    <t>Calculated temporal metrics from horizontal wind speed at 300hPa from the ERA5 dataset on Pressure Levels</t>
-  </si>
-  <si>
     <t>Average Horizontal Wind Direction at the 950hPa pressure level</t>
   </si>
   <si>
-    <t>Calculated temporal metrics from horizontal wind direction at 950hPa from the ERA5 dataset on Pressure Levels</t>
-  </si>
-  <si>
     <t>Average Horizontal Wind Direction at the 850hPa pressure level</t>
   </si>
   <si>
-    <t>Calculated temporal metrics from horizontal wind direction at 850hPa from the ERA5 dataset on Pressure Levels</t>
-  </si>
-  <si>
     <t>Average Horizontal Wind Direction at the 700hPa pressure level</t>
   </si>
   <si>
-    <t>Calculated temporal metrics from horizontal wind direction at 700hPa from the ERA5 dataset on Pressure Levels</t>
-  </si>
-  <si>
     <t>Average Horizontal Wind Direction at the 500hPa pressure level</t>
   </si>
   <si>
-    <t>Calculated temporal metrics from horizontal wind direction at 500hPa from the ERA5 dataset on Pressure Levels</t>
-  </si>
-  <si>
     <t>Average Horizontal Wind Direction at the 300hPa pressure level</t>
   </si>
   <si>
-    <t>Calculated temporal metrics from horizontal wind direction at 300hPa from the ERA5 dataset on Pressure Levels</t>
-  </si>
-  <si>
     <t>Average Vertical Wind Speed at the 950hPa pressure level</t>
   </si>
   <si>
-    <t>Calculated temporal metrics from vertical wind speed at 950hPa from the ERA5 dataset on Pressure Levels</t>
-  </si>
-  <si>
     <t>Average Vertical Wind Speed at the 850hPa pressure level</t>
   </si>
   <si>
-    <t>Calculated temporal metrics from vertical wind speed at 850hPa from the ERA5 dataset on Pressure Levels</t>
-  </si>
-  <si>
     <t>Average Vertical Wind Speed at the 700hPa pressure level</t>
   </si>
   <si>
-    <t>Calculated temporal metrics from vertical wind speed at 700hPa from the ERA5 dataset on Pressure Levels</t>
-  </si>
-  <si>
     <t>Average Vertical Wind Speed at the 500hPa pressure level</t>
   </si>
   <si>
-    <t>Calculated temporal metrics from vertical wind speed at 500hPa from the ERA5 dataset on Pressure Levels</t>
-  </si>
-  <si>
     <t>Average Vertical Wind Speed at the 300hPa pressure level</t>
-  </si>
-  <si>
-    <t>Calculated temporal metrics from vertical wind speed at 300hPa from the ERA5 dataset on Pressure Levels</t>
   </si>
   <si>
     <t>Rate of change of the Boundary Layer Height</t>
@@ -2581,6 +2386,201 @@
   </si>
   <si>
     <t>Ocean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculated temporal average from the proportion of the total vegatated area in the polygon, obtained from the 'years_since_last_fire' dataset from GIS Data </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculated temporal average from the mean value in the polygon, obtained from the 'elevation' dataset from GIS Data </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculated temporal average from the circular mean value in the polygon, obtained from the 'aspect' dataset from GIS Data </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculated temporal average from the mode value in the polygon, obtained from the 'landform' dataset from GIS Data </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculated temporal average from the mode value in the polygon, obtained from the 'fuel_models' dataset from GIS Data </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculated temporal average from the weighted mean between the fuel model's proportions in the polygon and tabulated mean fuel load values, obtained from the 'fuel_models' dataset from GIS Data </t>
+  </si>
+  <si>
+    <t>Calculated temporal average from the COS (Carta de Ocupação do Solo).</t>
+  </si>
+  <si>
+    <t>Calculated temporal average from the ERA5 dataset</t>
+  </si>
+  <si>
+    <t>Calculated temporal average from the ERA5 Land dataset</t>
+  </si>
+  <si>
+    <t>Calculated temporal average from temperature and dew point at 2m height, from the ERA5 Land dataset</t>
+  </si>
+  <si>
+    <t>Calculated temporal average from air temperature, from the ERA5 Land dataset, and relative humidity using Anderson, W. et al. (2015) formula.</t>
+  </si>
+  <si>
+    <t>Average index representing the potential for large fire growth under hot, dry, and windy conditions, Calculated temporal average from temperature, humidity, and wind.</t>
+  </si>
+  <si>
+    <t>Calculated temporal average from the multiplication of vapor pressure deficit at the 2m and 10-meter wind speed as the maximum VPD and wind speed in the lowest 50 millibars in the atmosphere.</t>
+  </si>
+  <si>
+    <t>Calculated temporal average from the difference in wind speed between 10 meter height, from the ERA5 dataset, and the 950hPa level, from the ERA5 dataset on Pressure Levels, divided by the vertical distance between those levels.</t>
+  </si>
+  <si>
+    <t>Calculated temporal average from the change in wind direction between 10 meter height, from the ERA5 Land dataset, and the 950hPa level, from the ERA5 dataset on Pressure Levels, normalized to the shortest angular difference and divided by the vertical distance between those levels.</t>
+  </si>
+  <si>
+    <t>Calculated temporal average from the difference in wind speed between 10 meter height, from the ERA5 dataset, and the 700hPa level, from the ERA5 dataset on Pressure Levels, divided by the vertical distance between those levels.</t>
+  </si>
+  <si>
+    <t>Calculated temporal average from the change in wind direction between 10 meter height, from the ERA5 Land dataset, and the 700hPa level, from the ERA5 dataset on Pressure Levels, normalized to the shortest angular difference and divided by the vertical distance between those levels.</t>
+  </si>
+  <si>
+    <t>Calculated temporal average from the difference in wind speed between 10 meter height, from the ERA5 dataset, and the 500hPa level, from the ERA5 dataset on Pressure Levels, divided by the vertical distance between those levels.</t>
+  </si>
+  <si>
+    <t>Calculated temporal average from the change in wind direction between 10 meter height, from the ERA5 Land dataset, and the 500hPa level, from the ERA5 dataset on Pressure Levels, normalized to the shortest angular difference and divided by the vertical distance between those levels.</t>
+  </si>
+  <si>
+    <t>Calculated temporal average from the difference in wind speed between 10 meter height, from the ERA5 dataset, and 100 meter height, from the ERA5 dataset on Single Levels, divided by the vertical distance between those levels.</t>
+  </si>
+  <si>
+    <t>Calculated temporal average from the change in wind direction between 10 meter height, from the ERA5 Land dataset, and 100 meter height, from the ERA5 dataset on Single Levels, normalized to the shortest angular difference and divided by the vertical distance between those levels.</t>
+  </si>
+  <si>
+    <t>Calculated temporal average from the rate of change in temperature between 2 meter height, from the ERA5 Land dataset, and the 950hPa pressure level, from the ERA5 dataset on Pressure Levels.</t>
+  </si>
+  <si>
+    <t>Calculated temporal average from the rate of change in temperature between the 950hPa and the 850hPa pressure level, from the ERA5 dataset on Pressure Levels.</t>
+  </si>
+  <si>
+    <t>Calculated temporal average from the rate of change in temperature between the 850hPa and the 700hPa pressure level, from the ERA5 dataset on Pressure Levels.</t>
+  </si>
+  <si>
+    <t>Calculated temporal average from the rate of change in temperature between the 700hPa and the 500hPa pressure level, from the ERA5 dataset on Pressure Levels.</t>
+  </si>
+  <si>
+    <t>Calculated temporal average from the difference between the BLH_m, from the ERA5 dataset, and the LCL_m previously calculated</t>
+  </si>
+  <si>
+    <t>Calculated temporal average from the pressure, temperature and dewpoint atmosferic profiles (ground + pressure levels, 950hPa 850hPa 700hPa 500hPa and 300hPa)</t>
+  </si>
+  <si>
+    <t>Calculated temporal average from the pressure, temperature and dewpoint atmosferic profiles (ground + pressure levels, 950hPa 850hPa 700hPa 500hPa and 300hPa) if CAPE is positive</t>
+  </si>
+  <si>
+    <t>Calculated temporal average from the multiplication of the estimated mixing layer height (determined from CAPE, wind speed, and dewpoint depression conditions) with the wind speed at 950hPa (as an average wind speed in the mixing layer).</t>
+  </si>
+  <si>
+    <t>Calculated temporal average from the comparisson of the environmental temperature at 500hPa and the temperature of a surface-based parcel lifted dry-adiabatically to 500hPa</t>
+  </si>
+  <si>
+    <t>Calculated temporal average from the geopotential at 950hPa from the ERA5 dataset on Pressure Levels</t>
+  </si>
+  <si>
+    <t>Calculated temporal average from the geopotential at 850hPa from the ERA5 dataset on Pressure Levels</t>
+  </si>
+  <si>
+    <t>Calculated temporal average from the geopotential at 700hPa from the ERA5 dataset on Pressure Levels</t>
+  </si>
+  <si>
+    <t>Calculated temporal average from the geopotential at 500hPa from the ERA5 dataset on Pressure Levels</t>
+  </si>
+  <si>
+    <t>Calculated temporal average from the geopotential at 300hPa from the ERA5 dataset on Pressure Levels</t>
+  </si>
+  <si>
+    <t>Calculated temporal average from relative humidity at 950hPa from the ERA5 dataset on Pressure Levels</t>
+  </si>
+  <si>
+    <t>Calculated temporal average from relative humidity at 850hPa from the ERA5 dataset on Pressure Levels</t>
+  </si>
+  <si>
+    <t>Calculated temporal average from relative humidity at 700hPa from the ERA5 dataset on Pressure Levels</t>
+  </si>
+  <si>
+    <t>Calculated temporal average from relative humidity at 500hPa from the ERA5 dataset on Pressure Levels</t>
+  </si>
+  <si>
+    <t>Calculated temporal average from relative humidity at 300hPa from the ERA5 dataset on Pressure Levels</t>
+  </si>
+  <si>
+    <t>Calculated temporal average from air temperature at 950hPa from the ERA5 dataset on Pressure Levels</t>
+  </si>
+  <si>
+    <t>Calculated temporal average from air temperature at 850hPa from the ERA5 dataset on Pressure Levels</t>
+  </si>
+  <si>
+    <t>Calculated temporal average from air temperature at 700hPa from the ERA5 dataset on Pressure Levels</t>
+  </si>
+  <si>
+    <t>Calculated temporal average from air temperature at 500hPa from the ERA5 dataset on Pressure Levels</t>
+  </si>
+  <si>
+    <t>Calculated temporal average from air temperature at 300hPa from the ERA5 dataset on Pressure Levels</t>
+  </si>
+  <si>
+    <t>Calculated temporal average from horizontal wind speed at 950hPa from the ERA5 dataset on Pressure Levels</t>
+  </si>
+  <si>
+    <t>Calculated temporal average from horizontal wind speed at 850hPa from the ERA5 dataset on Pressure Levels</t>
+  </si>
+  <si>
+    <t>Calculated temporal average from horizontal wind speed at 700hPa from the ERA5 dataset on Pressure Levels</t>
+  </si>
+  <si>
+    <t>Calculated temporal average from horizontal wind speed at 500hPa from the ERA5 dataset on Pressure Levels</t>
+  </si>
+  <si>
+    <t>Calculated temporal average from horizontal wind speed at 300hPa from the ERA5 dataset on Pressure Levels</t>
+  </si>
+  <si>
+    <t>Calculated temporal average from horizontal wind direction at 950hPa from the ERA5 dataset on Pressure Levels</t>
+  </si>
+  <si>
+    <t>Calculated temporal average from horizontal wind direction at 850hPa from the ERA5 dataset on Pressure Levels</t>
+  </si>
+  <si>
+    <t>Calculated temporal average from horizontal wind direction at 700hPa from the ERA5 dataset on Pressure Levels</t>
+  </si>
+  <si>
+    <t>Calculated temporal average from horizontal wind direction at 500hPa from the ERA5 dataset on Pressure Levels</t>
+  </si>
+  <si>
+    <t>Calculated temporal average from horizontal wind direction at 300hPa from the ERA5 dataset on Pressure Levels</t>
+  </si>
+  <si>
+    <t>Calculated temporal average from vertical wind speed at 950hPa from the ERA5 dataset on Pressure Levels</t>
+  </si>
+  <si>
+    <t>Calculated temporal average from vertical wind speed at 850hPa from the ERA5 dataset on Pressure Levels</t>
+  </si>
+  <si>
+    <t>Calculated temporal average from vertical wind speed at 700hPa from the ERA5 dataset on Pressure Levels</t>
+  </si>
+  <si>
+    <t>Calculated temporal average from vertical wind speed at 500hPa from the ERA5 dataset on Pressure Levels</t>
+  </si>
+  <si>
+    <t>Calculated temporal average from vertical wind speed at 300hPa from the ERA5 dataset on Pressure Levels</t>
+  </si>
+  <si>
+    <t>Calculated temporal average from u and v components of the wind, from the ERA5 Land dataset</t>
+  </si>
+  <si>
+    <t>Calculated temporal average from u and v components of the wind, from the ERA5 dataset</t>
+  </si>
+  <si>
+    <t>Calculated temporal average from surface pressure, temperature at 2 m and dew point temperature at 2 m, from the ERA5 Land dataset</t>
+  </si>
+  <si>
+    <t>Calculated temporal average from a weighted average of soil water content in the 0-3cm, 3-27cm and 27-100cm soil layers obtained from the ERA5 dataset</t>
+  </si>
+  <si>
+    <t>Calculated temporal average from a weighted average of soil water content in the 0-3cm, 3-27cm, 27-100cm and 100-297cm soil layers obtained from the ERA5 dataset</t>
   </si>
 </sst>
 </file>
@@ -2968,11 +2968,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F1175AB-6D2C-E847-84CD-F1A311E1E485}">
   <dimension ref="A1:M124"/>
   <sheetViews>
-    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F101" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="E91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L114" sqref="L114"/>
+      <selection pane="bottomRight" activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3001,7 +3001,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -3010,7 +3010,7 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -3019,7 +3019,7 @@
         <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="K1" t="s">
         <v>7</v>
@@ -3042,7 +3042,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -3051,7 +3051,7 @@
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="H2" t="s">
         <v>14</v>
@@ -3078,7 +3078,7 @@
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
@@ -3087,7 +3087,7 @@
         <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="H3" t="s">
         <v>14</v>
@@ -3113,7 +3113,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="E4" t="s">
         <v>24</v>
@@ -3122,7 +3122,7 @@
         <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
@@ -3148,7 +3148,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="E5" t="s">
         <v>27</v>
@@ -3157,7 +3157,7 @@
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="H5" t="s">
         <v>14</v>
@@ -3183,7 +3183,7 @@
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="E6" t="s">
         <v>30</v>
@@ -3192,7 +3192,7 @@
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="H6" t="s">
         <v>14</v>
@@ -3221,7 +3221,7 @@
         <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="E7" t="s">
         <v>34</v>
@@ -3230,7 +3230,7 @@
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H7" t="s">
         <v>14</v>
@@ -3256,7 +3256,7 @@
         <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="E8" t="s">
         <v>38</v>
@@ -3265,7 +3265,7 @@
         <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H8" t="s">
         <v>14</v>
@@ -3291,7 +3291,7 @@
         <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="E9" t="s">
         <v>41</v>
@@ -3300,7 +3300,7 @@
         <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="H9" t="s">
         <v>14</v>
@@ -3329,7 +3329,7 @@
         <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="E10" t="s">
         <v>47</v>
@@ -3338,7 +3338,7 @@
         <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="H10" t="s">
         <v>14</v>
@@ -3367,7 +3367,7 @@
         <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="E11" t="s">
         <v>50</v>
@@ -3376,7 +3376,7 @@
         <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="H11" t="s">
         <v>14</v>
@@ -3405,7 +3405,7 @@
         <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="E12" t="s">
         <v>53</v>
@@ -3414,7 +3414,7 @@
         <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="H12" t="s">
         <v>14</v>
@@ -3423,7 +3423,7 @@
         <v>15</v>
       </c>
       <c r="K12" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="M12">
         <v>1</v>
@@ -3437,10 +3437,10 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>584</v>
+        <v>519</v>
       </c>
       <c r="D13" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="E13" t="s">
         <v>55</v>
@@ -3449,7 +3449,7 @@
         <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="H13" t="s">
         <v>14</v>
@@ -3458,7 +3458,7 @@
         <v>15</v>
       </c>
       <c r="K13" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -3475,7 +3475,7 @@
         <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="E14" t="s">
         <v>58</v>
@@ -3484,7 +3484,7 @@
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H14" t="s">
         <v>14</v>
@@ -3493,7 +3493,7 @@
         <v>42</v>
       </c>
       <c r="K14" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>59</v>
@@ -3513,7 +3513,7 @@
         <v>62</v>
       </c>
       <c r="D15" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="E15" t="s">
         <v>63</v>
@@ -3522,7 +3522,7 @@
         <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H15" t="s">
         <v>14</v>
@@ -3548,7 +3548,7 @@
         <v>66</v>
       </c>
       <c r="D16" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="E16" t="s">
         <v>67</v>
@@ -3557,7 +3557,7 @@
         <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H16" t="s">
         <v>14</v>
@@ -3580,10 +3580,10 @@
         <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="D17" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="E17" t="s">
         <v>70</v>
@@ -3592,7 +3592,7 @@
         <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H17" t="s">
         <v>14</v>
@@ -3618,7 +3618,7 @@
         <v>72</v>
       </c>
       <c r="D18" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="E18" t="s">
         <v>73</v>
@@ -3627,7 +3627,7 @@
         <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H18" t="s">
         <v>14</v>
@@ -3653,7 +3653,7 @@
         <v>75</v>
       </c>
       <c r="D19" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="E19" t="s">
         <v>76</v>
@@ -3662,7 +3662,7 @@
         <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H19" t="s">
         <v>14</v>
@@ -3688,7 +3688,7 @@
         <v>78</v>
       </c>
       <c r="D20" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="E20" t="s">
         <v>79</v>
@@ -3697,7 +3697,7 @@
         <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H20" t="s">
         <v>14</v>
@@ -3723,7 +3723,7 @@
         <v>82</v>
       </c>
       <c r="D21" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="E21" t="s">
         <v>83</v>
@@ -3732,7 +3732,7 @@
         <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H21" t="s">
         <v>14</v>
@@ -3758,7 +3758,7 @@
         <v>85</v>
       </c>
       <c r="D22" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="E22" t="s">
         <v>86</v>
@@ -3767,7 +3767,7 @@
         <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H22" t="s">
         <v>14</v>
@@ -3796,7 +3796,7 @@
         <v>89</v>
       </c>
       <c r="D23" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="E23" t="s">
         <v>90</v>
@@ -3805,7 +3805,7 @@
         <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H23" t="s">
         <v>14</v>
@@ -3834,7 +3834,7 @@
         <v>92</v>
       </c>
       <c r="D24" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="E24" t="s">
         <v>163</v>
@@ -3843,7 +3843,7 @@
         <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="H24" t="s">
         <v>14</v>
@@ -3852,7 +3852,7 @@
         <v>15</v>
       </c>
       <c r="K24" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="L24" t="s">
         <v>93</v>
@@ -3872,16 +3872,16 @@
         <v>177</v>
       </c>
       <c r="D25" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="E25" t="s">
         <v>181</v>
       </c>
       <c r="F25" t="s">
-        <v>202</v>
+        <v>780</v>
       </c>
       <c r="G25" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H25" t="s">
         <v>94</v>
@@ -3910,16 +3910,16 @@
         <v>179</v>
       </c>
       <c r="D26" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="E26" t="s">
         <v>182</v>
       </c>
       <c r="F26" t="s">
-        <v>202</v>
+        <v>780</v>
       </c>
       <c r="G26" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H26" t="s">
         <v>94</v>
@@ -3948,16 +3948,16 @@
         <v>180</v>
       </c>
       <c r="D27" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="E27" t="s">
         <v>183</v>
       </c>
       <c r="F27" t="s">
-        <v>202</v>
+        <v>780</v>
       </c>
       <c r="G27" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H27" t="s">
         <v>94</v>
@@ -3986,16 +3986,16 @@
         <v>97</v>
       </c>
       <c r="D28" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>169</v>
       </c>
       <c r="F28" t="s">
-        <v>203</v>
+        <v>781</v>
       </c>
       <c r="G28" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H28" t="s">
         <v>94</v>
@@ -4021,16 +4021,16 @@
         <v>100</v>
       </c>
       <c r="D29" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>170</v>
       </c>
       <c r="F29" t="s">
-        <v>204</v>
+        <v>782</v>
       </c>
       <c r="G29" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H29" t="s">
         <v>94</v>
@@ -4056,16 +4056,16 @@
         <v>167</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="F30" t="s">
-        <v>205</v>
+        <v>783</v>
       </c>
       <c r="G30" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="H30" t="s">
         <v>102</v>
@@ -4074,7 +4074,7 @@
         <v>15</v>
       </c>
       <c r="K30" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="L30" t="s">
         <v>192</v>
@@ -4094,16 +4094,16 @@
         <v>168</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="F31" t="s">
-        <v>206</v>
+        <v>784</v>
       </c>
       <c r="G31" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="H31" t="s">
         <v>104</v>
@@ -4112,7 +4112,7 @@
         <v>15</v>
       </c>
       <c r="K31" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="M31">
         <v>1</v>
@@ -4129,16 +4129,16 @@
         <v>106</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>171</v>
       </c>
       <c r="F32" t="s">
-        <v>207</v>
+        <v>785</v>
       </c>
       <c r="G32" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H32" t="s">
         <v>104</v>
@@ -4161,19 +4161,19 @@
         <v>166</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>173</v>
       </c>
       <c r="F33" t="s">
-        <v>208</v>
+        <v>786</v>
       </c>
       <c r="G33" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="H33" t="s">
         <v>14</v>
@@ -4182,7 +4182,7 @@
         <v>15</v>
       </c>
       <c r="K33" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="L33" t="s">
         <v>191</v>
@@ -4199,19 +4199,19 @@
         <v>166</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>174</v>
       </c>
       <c r="F34" t="s">
-        <v>208</v>
+        <v>786</v>
       </c>
       <c r="G34" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="H34" t="s">
         <v>14</v>
@@ -4231,22 +4231,22 @@
         <v>112</v>
       </c>
       <c r="B35" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C35" t="s">
         <v>113</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>175</v>
       </c>
       <c r="F35" t="s">
-        <v>210</v>
+        <v>787</v>
       </c>
       <c r="G35" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H35" t="s">
         <v>176</v>
@@ -4269,22 +4269,22 @@
         <v>158</v>
       </c>
       <c r="B36" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="F36" t="s">
-        <v>210</v>
+        <v>787</v>
       </c>
       <c r="G36" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H36" t="s">
         <v>176</v>
@@ -4301,22 +4301,22 @@
         <v>159</v>
       </c>
       <c r="B37" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="F37" t="s">
-        <v>210</v>
+        <v>787</v>
       </c>
       <c r="G37" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H37" t="s">
         <v>176</v>
@@ -4333,22 +4333,22 @@
         <v>160</v>
       </c>
       <c r="B38" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="F38" t="s">
-        <v>210</v>
+        <v>787</v>
       </c>
       <c r="G38" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H38" t="s">
         <v>176</v>
@@ -4365,22 +4365,22 @@
         <v>161</v>
       </c>
       <c r="B39" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>178</v>
       </c>
       <c r="F39" t="s">
-        <v>210</v>
+        <v>787</v>
       </c>
       <c r="G39" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H39" t="s">
         <v>176</v>
@@ -4397,22 +4397,22 @@
         <v>114</v>
       </c>
       <c r="B40" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C40" t="s">
         <v>115</v>
       </c>
       <c r="D40" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>116</v>
       </c>
       <c r="F40" t="s">
-        <v>210</v>
+        <v>787</v>
       </c>
       <c r="G40" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H40" t="s">
         <v>176</v>
@@ -4432,22 +4432,22 @@
         <v>117</v>
       </c>
       <c r="B41" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C41" t="s">
         <v>118</v>
       </c>
       <c r="D41" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>119</v>
       </c>
       <c r="F41" t="s">
-        <v>210</v>
+        <v>787</v>
       </c>
       <c r="G41" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H41" t="s">
         <v>176</v>
@@ -4467,22 +4467,22 @@
         <v>121</v>
       </c>
       <c r="B42" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C42" t="s">
         <v>122</v>
       </c>
       <c r="D42" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>185</v>
       </c>
       <c r="F42" t="s">
-        <v>210</v>
+        <v>787</v>
       </c>
       <c r="G42" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H42" t="s">
         <v>176</v>
@@ -4505,22 +4505,22 @@
         <v>110</v>
       </c>
       <c r="B43" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C43" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="D43" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="F43" t="s">
-        <v>211</v>
+        <v>788</v>
       </c>
       <c r="G43" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H43" t="s">
         <v>125</v>
@@ -4540,22 +4540,22 @@
         <v>123</v>
       </c>
       <c r="B44" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C44" t="s">
         <v>124</v>
       </c>
       <c r="D44" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F44" t="s">
-        <v>211</v>
+        <v>788</v>
       </c>
       <c r="G44" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H44" t="s">
         <v>125</v>
@@ -4575,22 +4575,22 @@
         <v>126</v>
       </c>
       <c r="B45" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C45" t="s">
         <v>127</v>
       </c>
       <c r="D45" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>128</v>
       </c>
       <c r="F45" t="s">
-        <v>211</v>
+        <v>788</v>
       </c>
       <c r="G45" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H45" t="s">
         <v>125</v>
@@ -4610,22 +4610,22 @@
         <v>130</v>
       </c>
       <c r="B46" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C46" t="s">
         <v>162</v>
       </c>
       <c r="D46" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>187</v>
       </c>
       <c r="F46" t="s">
-        <v>211</v>
+        <v>788</v>
       </c>
       <c r="G46" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H46" t="s">
         <v>125</v>
@@ -4645,22 +4645,22 @@
         <v>139</v>
       </c>
       <c r="B47" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C47" t="s">
         <v>140</v>
       </c>
       <c r="D47" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="E47" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="F47" t="s">
-        <v>217</v>
+        <v>789</v>
       </c>
       <c r="G47" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H47" t="s">
         <v>125</v>
@@ -4680,22 +4680,22 @@
         <v>141</v>
       </c>
       <c r="B48" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C48" t="s">
-        <v>585</v>
+        <v>520</v>
       </c>
       <c r="D48" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="E48" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="F48" t="s">
-        <v>217</v>
+        <v>789</v>
       </c>
       <c r="G48" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H48" t="s">
         <v>125</v>
@@ -4704,7 +4704,7 @@
         <v>42</v>
       </c>
       <c r="K48" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="M48">
         <v>1</v>
@@ -4715,22 +4715,22 @@
         <v>142</v>
       </c>
       <c r="B49" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C49" t="s">
         <v>143</v>
       </c>
       <c r="D49" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>188</v>
       </c>
       <c r="F49" t="s">
-        <v>225</v>
+        <v>790</v>
       </c>
       <c r="G49" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H49" t="s">
         <v>125</v>
@@ -4747,25 +4747,25 @@
     </row>
     <row r="50" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="B50" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C50" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="D50" t="s">
-        <v>586</v>
+        <v>521</v>
       </c>
       <c r="E50" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="F50" t="s">
-        <v>413</v>
+        <v>843</v>
       </c>
       <c r="G50" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H50" t="s">
         <v>176</v>
@@ -4774,7 +4774,7 @@
         <v>42</v>
       </c>
       <c r="K50" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="M50">
         <v>1</v>
@@ -4782,25 +4782,25 @@
     </row>
     <row r="51" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="B51" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C51" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="D51" t="s">
-        <v>587</v>
+        <v>522</v>
       </c>
       <c r="E51" t="s">
-        <v>643</v>
+        <v>578</v>
       </c>
       <c r="F51" t="s">
-        <v>412</v>
+        <v>844</v>
       </c>
       <c r="G51" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H51" t="s">
         <v>176</v>
@@ -4809,7 +4809,7 @@
         <v>42</v>
       </c>
       <c r="K51" t="s">
-        <v>415</v>
+        <v>394</v>
       </c>
       <c r="M51">
         <v>1</v>
@@ -4820,22 +4820,22 @@
         <v>144</v>
       </c>
       <c r="B52" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C52" t="s">
         <v>145</v>
       </c>
       <c r="D52" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="E52" t="s">
         <v>189</v>
       </c>
       <c r="F52" t="s">
-        <v>459</v>
+        <v>842</v>
       </c>
       <c r="G52" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H52" t="s">
         <v>125</v>
@@ -4852,25 +4852,25 @@
     </row>
     <row r="53" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="B53" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C53" t="s">
-        <v>641</v>
+        <v>576</v>
       </c>
       <c r="D53" t="s">
-        <v>642</v>
+        <v>577</v>
       </c>
       <c r="E53" t="s">
-        <v>411</v>
+        <v>392</v>
       </c>
       <c r="F53" t="s">
-        <v>459</v>
+        <v>842</v>
       </c>
       <c r="G53" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H53" t="s">
         <v>125</v>
@@ -4887,25 +4887,25 @@
     </row>
     <row r="54" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="B54" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C54" t="s">
         <v>146</v>
       </c>
       <c r="D54" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="E54" t="s">
-        <v>223</v>
+        <v>791</v>
       </c>
       <c r="F54" t="s">
-        <v>325</v>
+        <v>792</v>
       </c>
       <c r="G54" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H54" t="s">
         <v>125</v>
@@ -4914,7 +4914,7 @@
         <v>42</v>
       </c>
       <c r="K54" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="M54">
         <v>1</v>
@@ -4925,22 +4925,22 @@
         <v>149</v>
       </c>
       <c r="B55" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C55" t="s">
         <v>150</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="E55" t="s">
         <v>151</v>
       </c>
       <c r="F55" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="G55" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H55" t="s">
         <v>176</v>
@@ -4949,10 +4949,10 @@
         <v>15</v>
       </c>
       <c r="K55" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="L55" t="s">
-        <v>458</v>
+        <v>423</v>
       </c>
       <c r="M55">
         <v>1</v>
@@ -4960,25 +4960,25 @@
     </row>
     <row r="56" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="B56" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C56" t="s">
-        <v>418</v>
+        <v>397</v>
       </c>
       <c r="D56" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="E56" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="F56" t="s">
-        <v>420</v>
+        <v>793</v>
       </c>
       <c r="G56" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H56" t="s">
         <v>176</v>
@@ -4993,7 +4993,7 @@
         <v>198</v>
       </c>
       <c r="L56" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="M56">
         <v>1</v>
@@ -5001,25 +5001,25 @@
     </row>
     <row r="57" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="B57" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C57" t="s">
-        <v>421</v>
+        <v>399</v>
       </c>
       <c r="D57" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="E57" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
       <c r="F57" t="s">
-        <v>423</v>
+        <v>794</v>
       </c>
       <c r="G57" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H57" t="s">
         <v>176</v>
@@ -5034,7 +5034,7 @@
         <v>200</v>
       </c>
       <c r="L57" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="M57">
         <v>1</v>
@@ -5042,25 +5042,25 @@
     </row>
     <row r="58" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="B58" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C58" t="s">
-        <v>424</v>
+        <v>401</v>
       </c>
       <c r="D58" t="s">
-        <v>588</v>
+        <v>523</v>
       </c>
       <c r="E58" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="F58" t="s">
-        <v>425</v>
+        <v>795</v>
       </c>
       <c r="G58" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H58" t="s">
         <v>176</v>
@@ -5075,7 +5075,7 @@
         <v>198</v>
       </c>
       <c r="L58" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="M58">
         <v>1</v>
@@ -5083,25 +5083,25 @@
     </row>
     <row r="59" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="B59" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C59" t="s">
-        <v>426</v>
+        <v>402</v>
       </c>
       <c r="D59" t="s">
-        <v>589</v>
+        <v>524</v>
       </c>
       <c r="E59" t="s">
-        <v>408</v>
+        <v>389</v>
       </c>
       <c r="F59" t="s">
-        <v>427</v>
+        <v>796</v>
       </c>
       <c r="G59" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H59" t="s">
         <v>176</v>
@@ -5116,7 +5116,7 @@
         <v>200</v>
       </c>
       <c r="L59" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="M59">
         <v>1</v>
@@ -5124,25 +5124,25 @@
     </row>
     <row r="60" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="B60" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C60" t="s">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="D60" t="s">
-        <v>590</v>
+        <v>525</v>
       </c>
       <c r="E60" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="F60" t="s">
-        <v>429</v>
+        <v>797</v>
       </c>
       <c r="G60" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H60" t="s">
         <v>176</v>
@@ -5157,7 +5157,7 @@
         <v>198</v>
       </c>
       <c r="L60" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="M60">
         <v>1</v>
@@ -5165,25 +5165,25 @@
     </row>
     <row r="61" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="B61" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C61" t="s">
-        <v>430</v>
+        <v>404</v>
       </c>
       <c r="D61" t="s">
-        <v>591</v>
+        <v>526</v>
       </c>
       <c r="E61" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
       <c r="F61" t="s">
-        <v>431</v>
+        <v>798</v>
       </c>
       <c r="G61" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H61" t="s">
         <v>176</v>
@@ -5198,7 +5198,7 @@
         <v>200</v>
       </c>
       <c r="L61" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="M61">
         <v>1</v>
@@ -5206,25 +5206,25 @@
     </row>
     <row r="62" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="B62" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C62" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="D62" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="E62" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="F62" t="s">
-        <v>345</v>
+        <v>799</v>
       </c>
       <c r="G62" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H62" t="s">
         <v>176</v>
@@ -5241,25 +5241,25 @@
     </row>
     <row r="63" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="B63" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C63" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="D63" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="E63" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="F63" t="s">
-        <v>346</v>
+        <v>800</v>
       </c>
       <c r="G63" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H63" t="s">
         <v>176</v>
@@ -5276,25 +5276,25 @@
     </row>
     <row r="64" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="B64" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C64" t="s">
-        <v>434</v>
+        <v>406</v>
       </c>
       <c r="D64" t="s">
-        <v>592</v>
+        <v>527</v>
       </c>
       <c r="E64" t="s">
-        <v>439</v>
+        <v>411</v>
       </c>
       <c r="F64" t="s">
-        <v>444</v>
+        <v>801</v>
       </c>
       <c r="G64" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H64" t="s">
         <v>176</v>
@@ -5306,10 +5306,10 @@
         <v>-999</v>
       </c>
       <c r="K64" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="L64" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="M64">
         <v>1</v>
@@ -5317,25 +5317,25 @@
     </row>
     <row r="65" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="B65" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C65" t="s">
-        <v>435</v>
+        <v>407</v>
       </c>
       <c r="D65" t="s">
-        <v>593</v>
+        <v>528</v>
       </c>
       <c r="E65" t="s">
-        <v>440</v>
+        <v>412</v>
       </c>
       <c r="F65" t="s">
-        <v>445</v>
+        <v>802</v>
       </c>
       <c r="G65" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H65" t="s">
         <v>176</v>
@@ -5347,10 +5347,10 @@
         <v>-999</v>
       </c>
       <c r="K65" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="L65" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="M65">
         <v>1</v>
@@ -5358,25 +5358,25 @@
     </row>
     <row r="66" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="B66" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C66" t="s">
-        <v>436</v>
+        <v>408</v>
       </c>
       <c r="D66" t="s">
-        <v>594</v>
+        <v>529</v>
       </c>
       <c r="E66" t="s">
-        <v>441</v>
+        <v>413</v>
       </c>
       <c r="F66" t="s">
-        <v>446</v>
+        <v>803</v>
       </c>
       <c r="G66" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H66" t="s">
         <v>176</v>
@@ -5388,10 +5388,10 @@
         <v>-999</v>
       </c>
       <c r="K66" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="L66" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="M66">
         <v>1</v>
@@ -5399,25 +5399,25 @@
     </row>
     <row r="67" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="B67" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C67" t="s">
-        <v>437</v>
+        <v>409</v>
       </c>
       <c r="D67" t="s">
-        <v>595</v>
+        <v>530</v>
       </c>
       <c r="E67" t="s">
-        <v>442</v>
+        <v>414</v>
       </c>
       <c r="F67" t="s">
-        <v>447</v>
+        <v>804</v>
       </c>
       <c r="G67" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H67" t="s">
         <v>176</v>
@@ -5429,10 +5429,10 @@
         <v>-999</v>
       </c>
       <c r="K67" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="L67" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="M67">
         <v>1</v>
@@ -5440,25 +5440,25 @@
     </row>
     <row r="68" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="B68" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C68" t="s">
-        <v>438</v>
+        <v>410</v>
       </c>
       <c r="D68" t="s">
-        <v>596</v>
+        <v>531</v>
       </c>
       <c r="E68" t="s">
-        <v>443</v>
+        <v>415</v>
       </c>
       <c r="F68" t="s">
-        <v>445</v>
+        <v>802</v>
       </c>
       <c r="G68" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H68" t="s">
         <v>176</v>
@@ -5470,10 +5470,10 @@
         <v>-999</v>
       </c>
       <c r="K68" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="L68" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="M68">
         <v>1</v>
@@ -5481,25 +5481,25 @@
     </row>
     <row r="69" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="B69" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C69" t="s">
-        <v>448</v>
+        <v>416</v>
       </c>
       <c r="D69" t="s">
-        <v>597</v>
+        <v>532</v>
       </c>
       <c r="E69" t="s">
-        <v>449</v>
+        <v>417</v>
       </c>
       <c r="F69" t="s">
-        <v>450</v>
+        <v>805</v>
       </c>
       <c r="G69" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H69" t="s">
         <v>176</v>
@@ -5516,25 +5516,25 @@
     </row>
     <row r="70" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="B70" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C70" t="s">
         <v>199</v>
       </c>
       <c r="D70" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="E70" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="F70" t="s">
-        <v>322</v>
+        <v>806</v>
       </c>
       <c r="G70" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H70" t="s">
         <v>125</v>
@@ -5546,7 +5546,7 @@
         <v>-1</v>
       </c>
       <c r="K70" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="M70">
         <v>1</v>
@@ -5554,25 +5554,25 @@
     </row>
     <row r="71" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="B71" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C71" t="s">
         <v>201</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="E71" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="F71" t="s">
-        <v>322</v>
+        <v>806</v>
       </c>
       <c r="G71" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H71" t="s">
         <v>125</v>
@@ -5584,7 +5584,7 @@
         <v>-1</v>
       </c>
       <c r="K71" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="M71">
         <v>1</v>
@@ -5592,25 +5592,25 @@
     </row>
     <row r="72" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="B72" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C72" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="E72" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="F72" t="s">
-        <v>323</v>
+        <v>807</v>
       </c>
       <c r="G72" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H72" t="s">
         <v>125</v>
@@ -5630,25 +5630,25 @@
     </row>
     <row r="73" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="B73" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C73" t="s">
         <v>147</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>148</v>
       </c>
       <c r="F73" t="s">
-        <v>432</v>
+        <v>808</v>
       </c>
       <c r="G73" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H73" t="s">
         <v>125</v>
@@ -5657,10 +5657,10 @@
         <v>42</v>
       </c>
       <c r="K73" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="L73" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="M73">
         <v>1</v>
@@ -5668,25 +5668,25 @@
     </row>
     <row r="74" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="B74" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C74" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="E74" t="s">
-        <v>433</v>
+        <v>405</v>
       </c>
       <c r="F74" t="s">
-        <v>456</v>
+        <v>809</v>
       </c>
       <c r="G74" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H74" t="s">
         <v>125</v>
@@ -5695,7 +5695,7 @@
         <v>42</v>
       </c>
       <c r="K74" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="M74">
         <v>1</v>
@@ -5703,25 +5703,25 @@
     </row>
     <row r="75" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="B75" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C75" t="s">
-        <v>460</v>
+        <v>424</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>598</v>
+        <v>533</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>451</v>
+        <v>418</v>
       </c>
       <c r="F75" t="s">
-        <v>457</v>
+        <v>810</v>
       </c>
       <c r="G75" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H75" t="s">
         <v>176</v>
@@ -5738,25 +5738,25 @@
     </row>
     <row r="76" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="B76" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C76" t="s">
-        <v>461</v>
+        <v>425</v>
       </c>
       <c r="D76" t="s">
-        <v>599</v>
+        <v>534</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>452</v>
+        <v>419</v>
       </c>
       <c r="F76" t="s">
-        <v>486</v>
+        <v>811</v>
       </c>
       <c r="G76" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H76" t="s">
         <v>176</v>
@@ -5773,25 +5773,25 @@
     </row>
     <row r="77" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="B77" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C77" t="s">
-        <v>462</v>
+        <v>426</v>
       </c>
       <c r="D77" t="s">
-        <v>600</v>
+        <v>535</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>453</v>
+        <v>420</v>
       </c>
       <c r="F77" t="s">
-        <v>487</v>
+        <v>812</v>
       </c>
       <c r="G77" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H77" t="s">
         <v>176</v>
@@ -5808,25 +5808,25 @@
     </row>
     <row r="78" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="B78" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C78" t="s">
-        <v>463</v>
+        <v>427</v>
       </c>
       <c r="D78" t="s">
-        <v>601</v>
+        <v>536</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>454</v>
+        <v>421</v>
       </c>
       <c r="F78" t="s">
-        <v>488</v>
+        <v>813</v>
       </c>
       <c r="G78" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H78" t="s">
         <v>176</v>
@@ -5843,25 +5843,25 @@
     </row>
     <row r="79" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="B79" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C79" t="s">
-        <v>464</v>
+        <v>428</v>
       </c>
       <c r="D79" t="s">
-        <v>602</v>
+        <v>537</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>455</v>
+        <v>422</v>
       </c>
       <c r="F79" t="s">
-        <v>489</v>
+        <v>814</v>
       </c>
       <c r="G79" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H79" t="s">
         <v>176</v>
@@ -5878,25 +5878,25 @@
     </row>
     <row r="80" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B80" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C80" t="s">
-        <v>465</v>
+        <v>429</v>
       </c>
       <c r="D80" t="s">
-        <v>603</v>
+        <v>538</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>490</v>
+        <v>450</v>
       </c>
       <c r="F80" t="s">
-        <v>491</v>
+        <v>815</v>
       </c>
       <c r="G80" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H80" t="s">
         <v>176</v>
@@ -5913,25 +5913,25 @@
     </row>
     <row r="81" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="B81" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C81" t="s">
-        <v>466</v>
+        <v>430</v>
       </c>
       <c r="D81" t="s">
-        <v>604</v>
+        <v>539</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>492</v>
+        <v>451</v>
       </c>
       <c r="F81" t="s">
-        <v>493</v>
+        <v>816</v>
       </c>
       <c r="G81" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H81" t="s">
         <v>176</v>
@@ -5948,25 +5948,25 @@
     </row>
     <row r="82" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="B82" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C82" t="s">
-        <v>467</v>
+        <v>431</v>
       </c>
       <c r="D82" t="s">
-        <v>605</v>
+        <v>540</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>494</v>
+        <v>452</v>
       </c>
       <c r="F82" t="s">
-        <v>495</v>
+        <v>817</v>
       </c>
       <c r="G82" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H82" t="s">
         <v>176</v>
@@ -5983,25 +5983,25 @@
     </row>
     <row r="83" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="B83" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C83" t="s">
-        <v>468</v>
+        <v>432</v>
       </c>
       <c r="D83" t="s">
-        <v>606</v>
+        <v>541</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>496</v>
+        <v>453</v>
       </c>
       <c r="F83" t="s">
-        <v>497</v>
+        <v>818</v>
       </c>
       <c r="G83" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H83" t="s">
         <v>176</v>
@@ -6018,25 +6018,25 @@
     </row>
     <row r="84" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="B84" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C84" t="s">
-        <v>469</v>
+        <v>433</v>
       </c>
       <c r="D84" t="s">
-        <v>607</v>
+        <v>542</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>498</v>
+        <v>454</v>
       </c>
       <c r="F84" t="s">
-        <v>499</v>
+        <v>819</v>
       </c>
       <c r="G84" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H84" t="s">
         <v>176</v>
@@ -6053,25 +6053,25 @@
     </row>
     <row r="85" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="B85" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C85" t="s">
-        <v>485</v>
+        <v>449</v>
       </c>
       <c r="D85" t="s">
-        <v>608</v>
+        <v>543</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>500</v>
+        <v>455</v>
       </c>
       <c r="F85" t="s">
-        <v>501</v>
+        <v>820</v>
       </c>
       <c r="G85" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H85" t="s">
         <v>176</v>
@@ -6088,25 +6088,25 @@
     </row>
     <row r="86" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="B86" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C86" t="s">
-        <v>502</v>
+        <v>456</v>
       </c>
       <c r="D86" t="s">
-        <v>609</v>
+        <v>544</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>503</v>
+        <v>457</v>
       </c>
       <c r="F86" t="s">
-        <v>504</v>
+        <v>821</v>
       </c>
       <c r="G86" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H86" t="s">
         <v>176</v>
@@ -6123,25 +6123,25 @@
     </row>
     <row r="87" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="B87" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C87" t="s">
-        <v>505</v>
+        <v>458</v>
       </c>
       <c r="D87" t="s">
-        <v>610</v>
+        <v>545</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>506</v>
+        <v>459</v>
       </c>
       <c r="F87" t="s">
-        <v>507</v>
+        <v>822</v>
       </c>
       <c r="G87" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H87" t="s">
         <v>176</v>
@@ -6158,25 +6158,25 @@
     </row>
     <row r="88" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="B88" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C88" t="s">
-        <v>508</v>
+        <v>460</v>
       </c>
       <c r="D88" t="s">
-        <v>611</v>
+        <v>546</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>509</v>
+        <v>461</v>
       </c>
       <c r="F88" t="s">
-        <v>510</v>
+        <v>823</v>
       </c>
       <c r="G88" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H88" t="s">
         <v>176</v>
@@ -6193,25 +6193,25 @@
     </row>
     <row r="89" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="B89" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C89" t="s">
-        <v>511</v>
+        <v>462</v>
       </c>
       <c r="D89" t="s">
-        <v>612</v>
+        <v>547</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>512</v>
+        <v>463</v>
       </c>
       <c r="F89" t="s">
-        <v>513</v>
+        <v>824</v>
       </c>
       <c r="G89" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H89" t="s">
         <v>176</v>
@@ -6228,25 +6228,25 @@
     </row>
     <row r="90" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="B90" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C90" t="s">
-        <v>475</v>
+        <v>439</v>
       </c>
       <c r="D90" t="s">
-        <v>613</v>
+        <v>548</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>514</v>
+        <v>464</v>
       </c>
       <c r="F90" t="s">
-        <v>515</v>
+        <v>825</v>
       </c>
       <c r="G90" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H90" t="s">
         <v>176</v>
@@ -6263,25 +6263,25 @@
     </row>
     <row r="91" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="B91" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C91" t="s">
-        <v>476</v>
+        <v>440</v>
       </c>
       <c r="D91" t="s">
-        <v>614</v>
+        <v>549</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>516</v>
+        <v>465</v>
       </c>
       <c r="F91" t="s">
-        <v>517</v>
+        <v>826</v>
       </c>
       <c r="G91" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H91" t="s">
         <v>176</v>
@@ -6298,25 +6298,25 @@
     </row>
     <row r="92" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="B92" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C92" t="s">
-        <v>477</v>
+        <v>441</v>
       </c>
       <c r="D92" t="s">
-        <v>615</v>
+        <v>550</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>518</v>
+        <v>466</v>
       </c>
       <c r="F92" t="s">
-        <v>519</v>
+        <v>827</v>
       </c>
       <c r="G92" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H92" t="s">
         <v>176</v>
@@ -6333,25 +6333,25 @@
     </row>
     <row r="93" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="B93" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C93" t="s">
-        <v>478</v>
+        <v>442</v>
       </c>
       <c r="D93" t="s">
-        <v>616</v>
+        <v>551</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>520</v>
+        <v>467</v>
       </c>
       <c r="F93" t="s">
-        <v>521</v>
+        <v>828</v>
       </c>
       <c r="G93" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H93" t="s">
         <v>176</v>
@@ -6368,25 +6368,25 @@
     </row>
     <row r="94" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="B94" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C94" t="s">
-        <v>479</v>
+        <v>443</v>
       </c>
       <c r="D94" t="s">
-        <v>617</v>
+        <v>552</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>522</v>
+        <v>468</v>
       </c>
       <c r="F94" t="s">
-        <v>523</v>
+        <v>829</v>
       </c>
       <c r="G94" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H94" t="s">
         <v>176</v>
@@ -6403,25 +6403,25 @@
     </row>
     <row r="95" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="B95" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C95" t="s">
-        <v>480</v>
+        <v>444</v>
       </c>
       <c r="D95" t="s">
-        <v>618</v>
+        <v>553</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>524</v>
+        <v>469</v>
       </c>
       <c r="F95" t="s">
-        <v>525</v>
+        <v>830</v>
       </c>
       <c r="G95" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H95" t="s">
         <v>176</v>
@@ -6438,25 +6438,25 @@
     </row>
     <row r="96" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="B96" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C96" t="s">
-        <v>481</v>
+        <v>445</v>
       </c>
       <c r="D96" t="s">
-        <v>619</v>
+        <v>554</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>526</v>
+        <v>470</v>
       </c>
       <c r="F96" t="s">
-        <v>527</v>
+        <v>831</v>
       </c>
       <c r="G96" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H96" t="s">
         <v>176</v>
@@ -6473,25 +6473,25 @@
     </row>
     <row r="97" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="B97" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C97" t="s">
-        <v>482</v>
+        <v>446</v>
       </c>
       <c r="D97" t="s">
-        <v>620</v>
+        <v>555</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>528</v>
+        <v>471</v>
       </c>
       <c r="F97" t="s">
-        <v>529</v>
+        <v>832</v>
       </c>
       <c r="G97" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H97" t="s">
         <v>176</v>
@@ -6508,25 +6508,25 @@
     </row>
     <row r="98" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="B98" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C98" t="s">
-        <v>483</v>
+        <v>447</v>
       </c>
       <c r="D98" t="s">
-        <v>621</v>
+        <v>556</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>530</v>
+        <v>472</v>
       </c>
       <c r="F98" t="s">
-        <v>531</v>
+        <v>833</v>
       </c>
       <c r="G98" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H98" t="s">
         <v>176</v>
@@ -6543,25 +6543,25 @@
     </row>
     <row r="99" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="B99" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C99" t="s">
-        <v>484</v>
+        <v>448</v>
       </c>
       <c r="D99" t="s">
-        <v>622</v>
+        <v>557</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>532</v>
+        <v>473</v>
       </c>
       <c r="F99" t="s">
-        <v>533</v>
+        <v>834</v>
       </c>
       <c r="G99" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H99" t="s">
         <v>176</v>
@@ -6578,25 +6578,25 @@
     </row>
     <row r="100" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="B100" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C100" t="s">
-        <v>470</v>
+        <v>434</v>
       </c>
       <c r="D100" t="s">
-        <v>623</v>
+        <v>558</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>534</v>
+        <v>474</v>
       </c>
       <c r="F100" t="s">
-        <v>535</v>
+        <v>835</v>
       </c>
       <c r="G100" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H100" t="s">
         <v>176</v>
@@ -6613,25 +6613,25 @@
     </row>
     <row r="101" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>377</v>
+        <v>358</v>
       </c>
       <c r="B101" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C101" t="s">
-        <v>471</v>
+        <v>435</v>
       </c>
       <c r="D101" t="s">
-        <v>624</v>
+        <v>559</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>536</v>
+        <v>475</v>
       </c>
       <c r="F101" t="s">
-        <v>537</v>
+        <v>836</v>
       </c>
       <c r="G101" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H101" t="s">
         <v>176</v>
@@ -6648,25 +6648,25 @@
     </row>
     <row r="102" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="B102" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C102" t="s">
-        <v>472</v>
+        <v>436</v>
       </c>
       <c r="D102" t="s">
-        <v>625</v>
+        <v>560</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>538</v>
+        <v>476</v>
       </c>
       <c r="F102" t="s">
-        <v>539</v>
+        <v>837</v>
       </c>
       <c r="G102" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H102" t="s">
         <v>176</v>
@@ -6683,25 +6683,25 @@
     </row>
     <row r="103" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
       <c r="B103" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C103" t="s">
-        <v>473</v>
+        <v>437</v>
       </c>
       <c r="D103" t="s">
-        <v>626</v>
+        <v>561</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>540</v>
+        <v>477</v>
       </c>
       <c r="F103" t="s">
-        <v>541</v>
+        <v>838</v>
       </c>
       <c r="G103" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H103" t="s">
         <v>176</v>
@@ -6718,25 +6718,25 @@
     </row>
     <row r="104" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="B104" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C104" t="s">
-        <v>474</v>
+        <v>438</v>
       </c>
       <c r="D104" t="s">
-        <v>627</v>
+        <v>562</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>542</v>
+        <v>478</v>
       </c>
       <c r="F104" t="s">
-        <v>543</v>
+        <v>839</v>
       </c>
       <c r="G104" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H104" t="s">
         <v>176</v>
@@ -6756,22 +6756,22 @@
         <v>131</v>
       </c>
       <c r="B105" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C105" t="s">
         <v>132</v>
       </c>
       <c r="D105" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="F105" t="s">
-        <v>212</v>
+        <v>840</v>
       </c>
       <c r="G105" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H105" t="s">
         <v>125</v>
@@ -6791,22 +6791,22 @@
         <v>133</v>
       </c>
       <c r="B106" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C106" t="s">
         <v>134</v>
       </c>
       <c r="D106" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="E106" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="F106" t="s">
-        <v>212</v>
+        <v>840</v>
       </c>
       <c r="G106" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H106" t="s">
         <v>125</v>
@@ -6826,22 +6826,22 @@
         <v>135</v>
       </c>
       <c r="B107" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C107" t="s">
         <v>136</v>
       </c>
       <c r="D107" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="E107" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="F107" t="s">
-        <v>213</v>
+        <v>841</v>
       </c>
       <c r="G107" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H107" t="s">
         <v>125</v>
@@ -6861,22 +6861,22 @@
         <v>137</v>
       </c>
       <c r="B108" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C108" t="s">
         <v>138</v>
       </c>
       <c r="D108" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E108" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="F108" t="s">
-        <v>213</v>
+        <v>841</v>
       </c>
       <c r="G108" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H108" t="s">
         <v>125</v>
@@ -6893,25 +6893,25 @@
     </row>
     <row r="109" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="B109" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C109" t="s">
-        <v>544</v>
+        <v>479</v>
       </c>
       <c r="D109" t="s">
-        <v>628</v>
+        <v>563</v>
       </c>
       <c r="E109" t="s">
-        <v>544</v>
+        <v>479</v>
       </c>
       <c r="F109" t="s">
-        <v>548</v>
+        <v>483</v>
       </c>
       <c r="G109" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H109" t="s">
         <v>176</v>
@@ -6926,7 +6926,7 @@
         <v>68</v>
       </c>
       <c r="L109" s="5" t="s">
-        <v>644</v>
+        <v>579</v>
       </c>
       <c r="M109">
         <v>1</v>
@@ -6937,22 +6937,22 @@
         <v>152</v>
       </c>
       <c r="B110" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C110" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="E110" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="F110" t="s">
-        <v>545</v>
+        <v>480</v>
       </c>
       <c r="G110" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H110" t="s">
         <v>125</v>
@@ -6964,10 +6964,10 @@
         <v>-1</v>
       </c>
       <c r="K110" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="L110" t="s">
-        <v>645</v>
+        <v>580</v>
       </c>
       <c r="M110">
         <v>1</v>
@@ -6978,22 +6978,22 @@
         <v>153</v>
       </c>
       <c r="B111" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="D111" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="E111" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="F111" t="s">
-        <v>546</v>
+        <v>481</v>
       </c>
       <c r="G111" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H111" t="s">
         <v>125</v>
@@ -7005,10 +7005,10 @@
         <v>-1</v>
       </c>
       <c r="K111" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="L111" t="s">
-        <v>645</v>
+        <v>580</v>
       </c>
       <c r="M111">
         <v>1</v>
@@ -7019,22 +7019,22 @@
         <v>154</v>
       </c>
       <c r="B112" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="D112" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="E112" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="F112" t="s">
-        <v>547</v>
+        <v>482</v>
       </c>
       <c r="G112" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H112" t="s">
         <v>125</v>
@@ -7049,7 +7049,7 @@
         <v>196</v>
       </c>
       <c r="L112" t="s">
-        <v>645</v>
+        <v>580</v>
       </c>
       <c r="M112">
         <v>1</v>
@@ -7057,25 +7057,25 @@
     </row>
     <row r="113" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="B113" t="s">
         <v>61</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>549</v>
+        <v>484</v>
       </c>
       <c r="D113" t="s">
-        <v>629</v>
+        <v>564</v>
       </c>
       <c r="E113" t="s">
-        <v>550</v>
+        <v>485</v>
       </c>
       <c r="F113" t="s">
-        <v>551</v>
+        <v>486</v>
       </c>
       <c r="G113" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H113" t="s">
         <v>14</v>
@@ -7092,25 +7092,25 @@
     </row>
     <row r="114" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="B114" t="s">
         <v>61</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>552</v>
+        <v>487</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>630</v>
+        <v>565</v>
       </c>
       <c r="E114" t="s">
-        <v>553</v>
+        <v>488</v>
       </c>
       <c r="F114" t="s">
-        <v>554</v>
+        <v>489</v>
       </c>
       <c r="G114" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H114" t="s">
         <v>14</v>
@@ -7127,25 +7127,25 @@
     </row>
     <row r="115" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="B115" t="s">
         <v>61</v>
       </c>
       <c r="C115" t="s">
-        <v>555</v>
+        <v>490</v>
       </c>
       <c r="D115" t="s">
-        <v>631</v>
+        <v>566</v>
       </c>
       <c r="E115" t="s">
-        <v>556</v>
+        <v>491</v>
       </c>
       <c r="F115" t="s">
-        <v>557</v>
+        <v>492</v>
       </c>
       <c r="G115" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H115" t="s">
         <v>14</v>
@@ -7162,25 +7162,25 @@
     </row>
     <row r="116" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="B116" t="s">
         <v>61</v>
       </c>
       <c r="C116" t="s">
-        <v>558</v>
+        <v>493</v>
       </c>
       <c r="D116" t="s">
-        <v>632</v>
+        <v>567</v>
       </c>
       <c r="E116" t="s">
-        <v>559</v>
+        <v>494</v>
       </c>
       <c r="F116" t="s">
-        <v>560</v>
+        <v>495</v>
       </c>
       <c r="G116" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H116" t="s">
         <v>14</v>
@@ -7197,25 +7197,25 @@
     </row>
     <row r="117" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="B117" t="s">
         <v>61</v>
       </c>
       <c r="C117" t="s">
-        <v>561</v>
+        <v>496</v>
       </c>
       <c r="D117" t="s">
-        <v>633</v>
+        <v>568</v>
       </c>
       <c r="E117" t="s">
-        <v>562</v>
+        <v>497</v>
       </c>
       <c r="F117" t="s">
-        <v>563</v>
+        <v>498</v>
       </c>
       <c r="G117" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H117" t="s">
         <v>14</v>
@@ -7232,25 +7232,25 @@
     </row>
     <row r="118" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>397</v>
+        <v>378</v>
       </c>
       <c r="B118" t="s">
         <v>61</v>
       </c>
       <c r="C118" t="s">
-        <v>564</v>
+        <v>499</v>
       </c>
       <c r="D118" t="s">
-        <v>634</v>
+        <v>569</v>
       </c>
       <c r="E118" t="s">
-        <v>565</v>
+        <v>500</v>
       </c>
       <c r="F118" t="s">
-        <v>566</v>
+        <v>501</v>
       </c>
       <c r="G118" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H118" t="s">
         <v>14</v>
@@ -7267,25 +7267,25 @@
     </row>
     <row r="119" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="B119" t="s">
         <v>61</v>
       </c>
       <c r="C119" t="s">
-        <v>567</v>
+        <v>502</v>
       </c>
       <c r="D119" t="s">
-        <v>635</v>
+        <v>570</v>
       </c>
       <c r="E119" t="s">
-        <v>568</v>
+        <v>503</v>
       </c>
       <c r="F119" t="s">
-        <v>569</v>
+        <v>504</v>
       </c>
       <c r="G119" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H119" t="s">
         <v>14</v>
@@ -7302,25 +7302,25 @@
     </row>
     <row r="120" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="B120" t="s">
         <v>61</v>
       </c>
       <c r="C120" t="s">
-        <v>570</v>
+        <v>505</v>
       </c>
       <c r="D120" t="s">
-        <v>636</v>
+        <v>571</v>
       </c>
       <c r="E120" t="s">
-        <v>571</v>
+        <v>506</v>
       </c>
       <c r="F120" t="s">
-        <v>572</v>
+        <v>507</v>
       </c>
       <c r="G120" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H120" t="s">
         <v>14</v>
@@ -7337,25 +7337,25 @@
     </row>
     <row r="121" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="B121" t="s">
         <v>61</v>
       </c>
       <c r="C121" t="s">
-        <v>573</v>
+        <v>508</v>
       </c>
       <c r="D121" t="s">
-        <v>637</v>
+        <v>572</v>
       </c>
       <c r="E121" t="s">
-        <v>574</v>
+        <v>509</v>
       </c>
       <c r="F121" t="s">
-        <v>575</v>
+        <v>510</v>
       </c>
       <c r="G121" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H121" t="s">
         <v>14</v>
@@ -7372,25 +7372,25 @@
     </row>
     <row r="122" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="B122" t="s">
         <v>61</v>
       </c>
       <c r="C122" t="s">
-        <v>576</v>
+        <v>511</v>
       </c>
       <c r="D122" t="s">
-        <v>638</v>
+        <v>573</v>
       </c>
       <c r="E122" t="s">
-        <v>577</v>
+        <v>512</v>
       </c>
       <c r="F122" t="s">
-        <v>578</v>
+        <v>513</v>
       </c>
       <c r="G122" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H122" t="s">
         <v>14</v>
@@ -7407,25 +7407,25 @@
     </row>
     <row r="123" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="B123" t="s">
         <v>61</v>
       </c>
       <c r="C123" t="s">
-        <v>580</v>
+        <v>515</v>
       </c>
       <c r="D123" t="s">
-        <v>639</v>
+        <v>574</v>
       </c>
       <c r="E123" t="s">
-        <v>581</v>
+        <v>516</v>
       </c>
       <c r="F123" t="s">
-        <v>582</v>
+        <v>517</v>
       </c>
       <c r="G123" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H123" t="s">
         <v>14</v>
@@ -7434,7 +7434,7 @@
         <v>42</v>
       </c>
       <c r="K123" t="s">
-        <v>583</v>
+        <v>518</v>
       </c>
       <c r="M123">
         <v>1</v>
@@ -7442,25 +7442,25 @@
     </row>
     <row r="124" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="B124" t="s">
         <v>61</v>
       </c>
       <c r="C124" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="D124" t="s">
-        <v>640</v>
+        <v>575</v>
       </c>
       <c r="E124" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="F124" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="G124" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="H124" t="s">
         <v>14</v>
@@ -7469,10 +7469,10 @@
         <v>15</v>
       </c>
       <c r="K124" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="L124" s="4" t="s">
-        <v>579</v>
+        <v>514</v>
       </c>
       <c r="M124">
         <v>1</v>
@@ -7489,7 +7489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95A400EC-321D-4F6E-9C03-9B3A39CA9A21}">
   <dimension ref="A1:D94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+    <sheetView topLeftCell="A47" workbookViewId="0">
       <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
@@ -7503,1318 +7503,1318 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>748</v>
+        <v>683</v>
       </c>
       <c r="B1" t="s">
-        <v>751</v>
+        <v>686</v>
       </c>
       <c r="C1" t="s">
-        <v>749</v>
+        <v>684</v>
       </c>
       <c r="D1" t="s">
-        <v>750</v>
+        <v>685</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>646</v>
+        <v>581</v>
       </c>
       <c r="B2" t="s">
-        <v>752</v>
+        <v>687</v>
       </c>
       <c r="C2">
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>647</v>
+        <v>582</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>648</v>
+        <v>583</v>
       </c>
       <c r="B3" t="s">
-        <v>753</v>
+        <v>688</v>
       </c>
       <c r="C3">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>647</v>
+        <v>582</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>649</v>
+        <v>584</v>
       </c>
       <c r="B4" t="s">
-        <v>754</v>
+        <v>689</v>
       </c>
       <c r="C4">
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>647</v>
+        <v>582</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>650</v>
+        <v>585</v>
       </c>
       <c r="B5" t="s">
-        <v>755</v>
+        <v>690</v>
       </c>
       <c r="C5">
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>647</v>
+        <v>582</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>651</v>
+        <v>586</v>
       </c>
       <c r="B6" t="s">
-        <v>756</v>
+        <v>691</v>
       </c>
       <c r="C6">
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>647</v>
+        <v>582</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>652</v>
+        <v>587</v>
       </c>
       <c r="B7" t="s">
-        <v>757</v>
+        <v>692</v>
       </c>
       <c r="C7">
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>647</v>
+        <v>582</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>653</v>
+        <v>588</v>
       </c>
       <c r="B8" t="s">
-        <v>758</v>
+        <v>693</v>
       </c>
       <c r="C8">
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>647</v>
+        <v>582</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>654</v>
+        <v>589</v>
       </c>
       <c r="B9" t="s">
-        <v>759</v>
+        <v>694</v>
       </c>
       <c r="C9">
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>647</v>
+        <v>582</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>655</v>
+        <v>590</v>
       </c>
       <c r="B10" t="s">
-        <v>760</v>
+        <v>695</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>647</v>
+        <v>582</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>656</v>
+        <v>591</v>
       </c>
       <c r="B11" t="s">
-        <v>761</v>
+        <v>696</v>
       </c>
       <c r="C11">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>647</v>
+        <v>582</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>657</v>
+        <v>592</v>
       </c>
       <c r="B12" t="s">
-        <v>762</v>
+        <v>697</v>
       </c>
       <c r="C12">
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>647</v>
+        <v>582</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>658</v>
+        <v>593</v>
       </c>
       <c r="B13" t="s">
-        <v>763</v>
+        <v>698</v>
       </c>
       <c r="C13">
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>647</v>
+        <v>582</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>659</v>
+        <v>594</v>
       </c>
       <c r="B14" t="s">
-        <v>764</v>
+        <v>699</v>
       </c>
       <c r="C14">
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>647</v>
+        <v>582</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>660</v>
+        <v>595</v>
       </c>
       <c r="B15" t="s">
-        <v>765</v>
+        <v>700</v>
       </c>
       <c r="C15">
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>647</v>
+        <v>582</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>661</v>
+        <v>596</v>
       </c>
       <c r="B16" t="s">
-        <v>766</v>
+        <v>701</v>
       </c>
       <c r="C16">
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>647</v>
+        <v>582</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>662</v>
+        <v>597</v>
       </c>
       <c r="B17" t="s">
-        <v>767</v>
+        <v>702</v>
       </c>
       <c r="C17">
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>647</v>
+        <v>582</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>663</v>
+        <v>598</v>
       </c>
       <c r="B18" t="s">
-        <v>768</v>
+        <v>703</v>
       </c>
       <c r="C18">
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>647</v>
+        <v>582</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>664</v>
+        <v>599</v>
       </c>
       <c r="B19" t="s">
-        <v>769</v>
+        <v>704</v>
       </c>
       <c r="C19">
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>647</v>
+        <v>582</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>665</v>
+        <v>600</v>
       </c>
       <c r="B20" t="s">
-        <v>770</v>
+        <v>705</v>
       </c>
       <c r="C20">
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>647</v>
+        <v>582</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>666</v>
+        <v>601</v>
       </c>
       <c r="B21" t="s">
-        <v>771</v>
+        <v>706</v>
       </c>
       <c r="C21">
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>647</v>
+        <v>582</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>667</v>
+        <v>602</v>
       </c>
       <c r="B22" t="s">
-        <v>772</v>
+        <v>707</v>
       </c>
       <c r="C22">
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>647</v>
+        <v>582</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>668</v>
+        <v>603</v>
       </c>
       <c r="B23" t="s">
-        <v>773</v>
+        <v>708</v>
       </c>
       <c r="C23">
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>647</v>
+        <v>582</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>669</v>
+        <v>604</v>
       </c>
       <c r="B24" t="s">
-        <v>774</v>
+        <v>709</v>
       </c>
       <c r="C24">
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>647</v>
+        <v>582</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>670</v>
+        <v>605</v>
       </c>
       <c r="B25" t="s">
-        <v>775</v>
+        <v>710</v>
       </c>
       <c r="C25">
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>647</v>
+        <v>582</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>671</v>
+        <v>606</v>
       </c>
       <c r="B26" t="s">
-        <v>776</v>
+        <v>711</v>
       </c>
       <c r="C26">
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>647</v>
+        <v>582</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>672</v>
+        <v>607</v>
       </c>
       <c r="B27" t="s">
-        <v>777</v>
+        <v>712</v>
       </c>
       <c r="C27">
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>647</v>
+        <v>582</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>673</v>
+        <v>608</v>
       </c>
       <c r="B28" t="s">
-        <v>778</v>
+        <v>713</v>
       </c>
       <c r="C28">
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>647</v>
+        <v>582</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>674</v>
+        <v>609</v>
       </c>
       <c r="B29" t="s">
-        <v>779</v>
+        <v>714</v>
       </c>
       <c r="C29">
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>647</v>
+        <v>582</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>675</v>
+        <v>610</v>
       </c>
       <c r="B30" t="s">
-        <v>780</v>
+        <v>715</v>
       </c>
       <c r="C30">
         <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>647</v>
+        <v>582</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>676</v>
+        <v>611</v>
       </c>
       <c r="B31" t="s">
-        <v>781</v>
+        <v>716</v>
       </c>
       <c r="C31">
         <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>647</v>
+        <v>582</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>677</v>
+        <v>612</v>
       </c>
       <c r="B32" t="s">
-        <v>782</v>
+        <v>717</v>
       </c>
       <c r="C32">
         <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>647</v>
+        <v>582</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>678</v>
+        <v>613</v>
       </c>
       <c r="B33" t="s">
-        <v>783</v>
+        <v>718</v>
       </c>
       <c r="C33">
         <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>647</v>
+        <v>582</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>679</v>
+        <v>614</v>
       </c>
       <c r="B34" t="s">
-        <v>784</v>
+        <v>719</v>
       </c>
       <c r="C34">
         <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>647</v>
+        <v>582</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>680</v>
+        <v>615</v>
       </c>
       <c r="B35" t="s">
-        <v>785</v>
+        <v>720</v>
       </c>
       <c r="C35">
         <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>647</v>
+        <v>582</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>681</v>
+        <v>616</v>
       </c>
       <c r="B36" t="s">
-        <v>786</v>
+        <v>721</v>
       </c>
       <c r="C36">
         <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>647</v>
+        <v>582</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>682</v>
+        <v>617</v>
       </c>
       <c r="B37" t="s">
-        <v>787</v>
+        <v>722</v>
       </c>
       <c r="C37">
         <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>647</v>
+        <v>582</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>683</v>
+        <v>618</v>
       </c>
       <c r="B38" t="s">
-        <v>788</v>
+        <v>723</v>
       </c>
       <c r="C38">
         <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>647</v>
+        <v>582</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>684</v>
+        <v>619</v>
       </c>
       <c r="B39" t="s">
-        <v>789</v>
+        <v>724</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>685</v>
+        <v>620</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>686</v>
+        <v>621</v>
       </c>
       <c r="B40" t="s">
-        <v>790</v>
+        <v>725</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>685</v>
+        <v>620</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>687</v>
+        <v>622</v>
       </c>
       <c r="B41" t="s">
-        <v>791</v>
+        <v>726</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>685</v>
+        <v>620</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>688</v>
+        <v>623</v>
       </c>
       <c r="B42" t="s">
-        <v>792</v>
+        <v>727</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>685</v>
+        <v>620</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>689</v>
+        <v>624</v>
       </c>
       <c r="B43" t="s">
-        <v>793</v>
+        <v>728</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>685</v>
+        <v>620</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>690</v>
+        <v>625</v>
       </c>
       <c r="B44" t="s">
-        <v>794</v>
+        <v>729</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>685</v>
+        <v>620</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>691</v>
+        <v>626</v>
       </c>
       <c r="B45" t="s">
-        <v>795</v>
+        <v>730</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>685</v>
+        <v>620</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>692</v>
+        <v>627</v>
       </c>
       <c r="B46" t="s">
-        <v>796</v>
+        <v>731</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>685</v>
+        <v>620</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>693</v>
+        <v>628</v>
       </c>
       <c r="B47" t="s">
-        <v>797</v>
+        <v>732</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>685</v>
+        <v>620</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>694</v>
+        <v>629</v>
       </c>
       <c r="B48" t="s">
-        <v>798</v>
+        <v>733</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>685</v>
+        <v>620</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>695</v>
+        <v>630</v>
       </c>
       <c r="B49" t="s">
-        <v>799</v>
+        <v>734</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>685</v>
+        <v>620</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>696</v>
+        <v>631</v>
       </c>
       <c r="B50" t="s">
-        <v>800</v>
+        <v>735</v>
       </c>
       <c r="C50">
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>697</v>
+        <v>632</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>698</v>
+        <v>633</v>
       </c>
       <c r="B51" t="s">
-        <v>801</v>
+        <v>736</v>
       </c>
       <c r="C51">
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>697</v>
+        <v>632</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>699</v>
+        <v>634</v>
       </c>
       <c r="B52" t="s">
-        <v>802</v>
+        <v>737</v>
       </c>
       <c r="C52">
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>697</v>
+        <v>632</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>700</v>
+        <v>635</v>
       </c>
       <c r="B53" t="s">
-        <v>803</v>
+        <v>738</v>
       </c>
       <c r="C53">
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>697</v>
+        <v>632</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>701</v>
+        <v>636</v>
       </c>
       <c r="B54" t="s">
-        <v>804</v>
+        <v>739</v>
       </c>
       <c r="C54">
         <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>697</v>
+        <v>632</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>702</v>
+        <v>637</v>
       </c>
       <c r="B55" t="s">
-        <v>805</v>
+        <v>740</v>
       </c>
       <c r="C55">
         <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>697</v>
+        <v>632</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>703</v>
+        <v>638</v>
       </c>
       <c r="B56" t="s">
-        <v>806</v>
+        <v>741</v>
       </c>
       <c r="C56">
         <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>697</v>
+        <v>632</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>704</v>
+        <v>639</v>
       </c>
       <c r="B57" t="s">
-        <v>807</v>
+        <v>742</v>
       </c>
       <c r="C57">
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>697</v>
+        <v>632</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>705</v>
+        <v>640</v>
       </c>
       <c r="B58" t="s">
-        <v>808</v>
+        <v>743</v>
       </c>
       <c r="C58">
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>697</v>
+        <v>632</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>706</v>
+        <v>641</v>
       </c>
       <c r="B59" t="s">
-        <v>809</v>
+        <v>744</v>
       </c>
       <c r="C59">
         <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>697</v>
+        <v>632</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>707</v>
+        <v>642</v>
       </c>
       <c r="B60" t="s">
-        <v>810</v>
+        <v>745</v>
       </c>
       <c r="C60">
         <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>697</v>
+        <v>632</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>708</v>
+        <v>643</v>
       </c>
       <c r="B61" t="s">
-        <v>811</v>
+        <v>746</v>
       </c>
       <c r="C61">
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>697</v>
+        <v>632</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>709</v>
+        <v>644</v>
       </c>
       <c r="B62" t="s">
-        <v>812</v>
+        <v>747</v>
       </c>
       <c r="C62">
         <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>697</v>
+        <v>632</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>710</v>
+        <v>645</v>
       </c>
       <c r="B63" t="s">
-        <v>813</v>
+        <v>748</v>
       </c>
       <c r="C63">
         <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>697</v>
+        <v>632</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>711</v>
+        <v>646</v>
       </c>
       <c r="B64" t="s">
-        <v>814</v>
+        <v>749</v>
       </c>
       <c r="C64">
         <v>3</v>
       </c>
       <c r="D64" t="s">
-        <v>712</v>
+        <v>647</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>713</v>
+        <v>648</v>
       </c>
       <c r="B65" t="s">
-        <v>815</v>
+        <v>750</v>
       </c>
       <c r="C65">
         <v>3</v>
       </c>
       <c r="D65" t="s">
-        <v>712</v>
+        <v>647</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>714</v>
+        <v>649</v>
       </c>
       <c r="B66" t="s">
-        <v>816</v>
+        <v>751</v>
       </c>
       <c r="C66">
         <v>3</v>
       </c>
       <c r="D66" t="s">
-        <v>712</v>
+        <v>647</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>715</v>
+        <v>650</v>
       </c>
       <c r="B67" t="s">
-        <v>817</v>
+        <v>752</v>
       </c>
       <c r="C67">
         <v>3</v>
       </c>
       <c r="D67" t="s">
-        <v>712</v>
+        <v>647</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>716</v>
+        <v>651</v>
       </c>
       <c r="B68" t="s">
-        <v>818</v>
+        <v>753</v>
       </c>
       <c r="C68">
         <v>3</v>
       </c>
       <c r="D68" t="s">
-        <v>712</v>
+        <v>647</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>717</v>
+        <v>652</v>
       </c>
       <c r="B69" t="s">
-        <v>819</v>
+        <v>754</v>
       </c>
       <c r="C69">
         <v>4</v>
       </c>
       <c r="D69" t="s">
-        <v>718</v>
+        <v>653</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>719</v>
+        <v>654</v>
       </c>
       <c r="B70" t="s">
-        <v>820</v>
+        <v>755</v>
       </c>
       <c r="C70">
         <v>5</v>
       </c>
       <c r="D70" t="s">
-        <v>720</v>
+        <v>655</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>721</v>
+        <v>656</v>
       </c>
       <c r="B71" t="s">
-        <v>821</v>
+        <v>756</v>
       </c>
       <c r="C71">
         <v>3</v>
       </c>
       <c r="D71" t="s">
-        <v>712</v>
+        <v>647</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>722</v>
+        <v>657</v>
       </c>
       <c r="B72" t="s">
-        <v>822</v>
+        <v>757</v>
       </c>
       <c r="C72">
         <v>6</v>
       </c>
       <c r="D72" t="s">
-        <v>723</v>
+        <v>658</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>724</v>
+        <v>659</v>
       </c>
       <c r="B73" t="s">
-        <v>823</v>
+        <v>758</v>
       </c>
       <c r="C73">
         <v>6</v>
       </c>
       <c r="D73" t="s">
-        <v>723</v>
+        <v>658</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>725</v>
+        <v>660</v>
       </c>
       <c r="B74" t="s">
-        <v>824</v>
+        <v>759</v>
       </c>
       <c r="C74">
         <v>6</v>
       </c>
       <c r="D74" t="s">
-        <v>723</v>
+        <v>658</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>726</v>
+        <v>661</v>
       </c>
       <c r="B75" t="s">
-        <v>825</v>
+        <v>760</v>
       </c>
       <c r="C75">
         <v>7</v>
       </c>
       <c r="D75" t="s">
-        <v>727</v>
+        <v>662</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>728</v>
+        <v>663</v>
       </c>
       <c r="B76" t="s">
-        <v>826</v>
+        <v>761</v>
       </c>
       <c r="C76">
         <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>647</v>
+        <v>582</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>729</v>
+        <v>664</v>
       </c>
       <c r="B77" t="s">
-        <v>827</v>
+        <v>762</v>
       </c>
       <c r="C77">
         <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>647</v>
+        <v>582</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>730</v>
+        <v>665</v>
       </c>
       <c r="B78" t="s">
-        <v>828</v>
+        <v>763</v>
       </c>
       <c r="C78">
         <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>647</v>
+        <v>582</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>731</v>
+        <v>666</v>
       </c>
       <c r="B79" t="s">
-        <v>829</v>
+        <v>764</v>
       </c>
       <c r="C79">
         <v>8</v>
       </c>
       <c r="D79" t="s">
-        <v>732</v>
+        <v>667</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>733</v>
+        <v>668</v>
       </c>
       <c r="B80" t="s">
-        <v>830</v>
+        <v>765</v>
       </c>
       <c r="C80">
         <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>647</v>
+        <v>582</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>734</v>
+        <v>669</v>
       </c>
       <c r="B81" t="s">
-        <v>831</v>
+        <v>766</v>
       </c>
       <c r="C81">
         <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>647</v>
+        <v>582</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>735</v>
+        <v>670</v>
       </c>
       <c r="B82" t="s">
-        <v>832</v>
+        <v>767</v>
       </c>
       <c r="C82">
         <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>647</v>
+        <v>582</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>736</v>
+        <v>671</v>
       </c>
       <c r="B83" t="s">
-        <v>833</v>
+        <v>768</v>
       </c>
       <c r="C83">
         <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>647</v>
+        <v>582</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>737</v>
+        <v>672</v>
       </c>
       <c r="B84" t="s">
-        <v>834</v>
+        <v>769</v>
       </c>
       <c r="C84">
         <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>647</v>
+        <v>582</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>738</v>
+        <v>673</v>
       </c>
       <c r="B85" t="s">
-        <v>835</v>
+        <v>770</v>
       </c>
       <c r="C85">
         <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>647</v>
+        <v>582</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>739</v>
+        <v>674</v>
       </c>
       <c r="B86" t="s">
-        <v>836</v>
+        <v>771</v>
       </c>
       <c r="C86">
         <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>647</v>
+        <v>582</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>740</v>
+        <v>675</v>
       </c>
       <c r="B87" t="s">
-        <v>837</v>
+        <v>772</v>
       </c>
       <c r="C87">
         <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>647</v>
+        <v>582</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>741</v>
+        <v>676</v>
       </c>
       <c r="B88" t="s">
-        <v>838</v>
+        <v>773</v>
       </c>
       <c r="C88">
         <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>647</v>
+        <v>582</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>742</v>
+        <v>677</v>
       </c>
       <c r="B89" t="s">
-        <v>839</v>
+        <v>774</v>
       </c>
       <c r="C89">
         <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>647</v>
+        <v>582</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>743</v>
+        <v>678</v>
       </c>
       <c r="B90" t="s">
-        <v>840</v>
+        <v>775</v>
       </c>
       <c r="C90">
         <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>647</v>
+        <v>582</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>744</v>
+        <v>679</v>
       </c>
       <c r="B91" t="s">
-        <v>841</v>
+        <v>776</v>
       </c>
       <c r="C91">
         <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>647</v>
+        <v>582</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>745</v>
+        <v>680</v>
       </c>
       <c r="B92" t="s">
-        <v>842</v>
+        <v>777</v>
       </c>
       <c r="C92">
         <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>647</v>
+        <v>582</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>746</v>
+        <v>681</v>
       </c>
       <c r="B93" t="s">
-        <v>843</v>
+        <v>778</v>
       </c>
       <c r="C93">
         <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>647</v>
+        <v>582</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>747</v>
+        <v>682</v>
       </c>
       <c r="B94" t="s">
-        <v>844</v>
+        <v>779</v>
       </c>
       <c r="C94">
         <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>647</v>
+        <v>582</v>
       </c>
     </row>
   </sheetData>
